--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H2">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J2">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N2">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O2">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P2">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q2">
-        <v>10567.64341299039</v>
+        <v>12917.885051172</v>
       </c>
       <c r="R2">
-        <v>95108.79071691351</v>
+        <v>116260.965460548</v>
       </c>
       <c r="S2">
-        <v>0.003344990460224686</v>
+        <v>0.004310202345809358</v>
       </c>
       <c r="T2">
-        <v>0.003344990460224686</v>
+        <v>0.004310202345809358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H3">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J3">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>1.259691</v>
       </c>
       <c r="N3">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P3">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q3">
-        <v>25.60727410043199</v>
+        <v>31.945011304576</v>
       </c>
       <c r="R3">
-        <v>230.4654669038879</v>
+        <v>287.505101741184</v>
       </c>
       <c r="S3">
-        <v>8.105505099936475E-06</v>
+        <v>1.065882395736273E-05</v>
       </c>
       <c r="T3">
-        <v>8.105505099936475E-06</v>
+        <v>1.065882395736273E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H4">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J4">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N4">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P4">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q4">
-        <v>1080.941603141109</v>
+        <v>581.4158448926862</v>
       </c>
       <c r="R4">
-        <v>9728.474428269985</v>
+        <v>5232.742604034176</v>
       </c>
       <c r="S4">
-        <v>0.0003421519074084486</v>
+        <v>0.0001939961478694086</v>
       </c>
       <c r="T4">
-        <v>0.0003421519074084486</v>
+        <v>0.0001939961478694086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.32821866666666</v>
+        <v>25.35940266666667</v>
       </c>
       <c r="H5">
-        <v>60.98465599999999</v>
+        <v>76.078208</v>
       </c>
       <c r="I5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654987</v>
       </c>
       <c r="J5">
-        <v>0.004181898474048532</v>
+        <v>0.005186643687654986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N5">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P5">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q5">
-        <v>1537.448337318636</v>
+        <v>2013.376266495943</v>
       </c>
       <c r="R5">
-        <v>13837.03503586773</v>
+        <v>18120.38639846349</v>
       </c>
       <c r="S5">
-        <v>0.000486650601315461</v>
+        <v>0.0006717863700188576</v>
       </c>
       <c r="T5">
-        <v>0.000486650601315461</v>
+        <v>0.0006717863700188575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J6">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N6">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O6">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P6">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q6">
-        <v>2500429.083865207</v>
+        <v>2450124.263719739</v>
       </c>
       <c r="R6">
-        <v>22503861.75478686</v>
+        <v>22051118.37347765</v>
       </c>
       <c r="S6">
-        <v>0.7914641992666064</v>
+        <v>0.8175124106752383</v>
       </c>
       <c r="T6">
-        <v>0.7914641992666064</v>
+        <v>0.8175124106752383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J7">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>1.259691</v>
       </c>
       <c r="N7">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P7">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q7">
         <v>6058.983106916708</v>
@@ -883,10 +883,10 @@
         <v>54530.84796225037</v>
       </c>
       <c r="S7">
-        <v>0.001917858116444882</v>
+        <v>0.002021650068660604</v>
       </c>
       <c r="T7">
-        <v>0.001917858116444882</v>
+        <v>0.002021650068660605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J8">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N8">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P8">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q8">
-        <v>255763.5337251675</v>
+        <v>110276.6484791904</v>
       </c>
       <c r="R8">
-        <v>2301871.803526507</v>
+        <v>992489.8363127136</v>
       </c>
       <c r="S8">
-        <v>0.08095717720115107</v>
+        <v>0.03679508426341637</v>
       </c>
       <c r="T8">
-        <v>0.08095717720115107</v>
+        <v>0.03679508426341638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.9894865072215304</v>
+        <v>0.9837462940761621</v>
       </c>
       <c r="J9">
-        <v>0.9894865072215304</v>
+        <v>0.983746294076162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N9">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P9">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q9">
-        <v>363778.411830787</v>
+        <v>381875.3629559208</v>
       </c>
       <c r="R9">
-        <v>3274005.706477083</v>
+        <v>3436878.266603287</v>
       </c>
       <c r="S9">
-        <v>0.1151472726373282</v>
+        <v>0.1274171490688468</v>
       </c>
       <c r="T9">
-        <v>0.1151472726373282</v>
+        <v>0.1274171490688467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H10">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J10">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N10">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O10">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P10">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q10">
-        <v>14598.88811187492</v>
+        <v>26118.07396974053</v>
       </c>
       <c r="R10">
-        <v>131389.9930068743</v>
+        <v>235062.6657276648</v>
       </c>
       <c r="S10">
-        <v>0.004621005796247867</v>
+        <v>0.008714598655000762</v>
       </c>
       <c r="T10">
-        <v>0.004621005796247867</v>
+        <v>0.008714598655000762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H11">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J11">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>1.259691</v>
       </c>
       <c r="N11">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O11">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P11">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q11">
-        <v>35.37569492388199</v>
+        <v>64.58814000217599</v>
       </c>
       <c r="R11">
-        <v>318.3812543149379</v>
+        <v>581.293260019584</v>
       </c>
       <c r="S11">
-        <v>1.119751655309868E-05</v>
+        <v>2.155058288923115E-05</v>
       </c>
       <c r="T11">
-        <v>1.119751655309868E-05</v>
+        <v>2.155058288923116E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H12">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J12">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N12">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O12">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P12">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q12">
-        <v>1493.288986296543</v>
+        <v>1175.537789965753</v>
       </c>
       <c r="R12">
-        <v>13439.60087666888</v>
+        <v>10579.84010969178</v>
       </c>
       <c r="S12">
-        <v>0.0004726727822193852</v>
+        <v>0.0003922318336033065</v>
       </c>
       <c r="T12">
-        <v>0.0004726727822193852</v>
+        <v>0.0003922318336033065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.08283533333333</v>
+        <v>51.27300266666666</v>
       </c>
       <c r="H13">
-        <v>84.24850599999999</v>
+        <v>153.819008</v>
       </c>
       <c r="I13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="J13">
-        <v>0.005777169566755752</v>
+        <v>0.01048663484403512</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N13">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O13">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P13">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q13">
-        <v>2123.939593449197</v>
+        <v>4070.752297992477</v>
       </c>
       <c r="R13">
-        <v>19115.45634104278</v>
+        <v>36636.77068193228</v>
       </c>
       <c r="S13">
-        <v>0.0006722934717354022</v>
+        <v>0.001358253772541824</v>
       </c>
       <c r="T13">
-        <v>0.0006722934717354022</v>
+        <v>0.001358253772541824</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H14">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J14">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>519.8509316666667</v>
+        <v>509.3923236666667</v>
       </c>
       <c r="N14">
-        <v>1559.552795</v>
+        <v>1528.176971</v>
       </c>
       <c r="O14">
-        <v>0.7998736652701117</v>
+        <v>0.831019558191033</v>
       </c>
       <c r="P14">
-        <v>0.7998736652701117</v>
+        <v>0.8310195581910331</v>
       </c>
       <c r="Q14">
-        <v>1401.029451897567</v>
+        <v>1445.615851762195</v>
       </c>
       <c r="R14">
-        <v>12609.2650670781</v>
+        <v>13010.54266585976</v>
       </c>
       <c r="S14">
-        <v>0.0004434697470327525</v>
+        <v>0.0004823465149846102</v>
       </c>
       <c r="T14">
-        <v>0.0004434697470327525</v>
+        <v>0.0004823465149846102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H15">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J15">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>1.259691</v>
       </c>
       <c r="N15">
-        <v>3.779072999999999</v>
+        <v>3.779073</v>
       </c>
       <c r="O15">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="P15">
-        <v>0.001938235743941786</v>
+        <v>0.002055052284145212</v>
       </c>
       <c r="Q15">
-        <v>3.39494282646</v>
+        <v>3.574905221998999</v>
       </c>
       <c r="R15">
-        <v>30.55448543814</v>
+        <v>32.174146997991</v>
       </c>
       <c r="S15">
-        <v>1.074605843868405E-06</v>
+        <v>1.192808638013716E-06</v>
       </c>
       <c r="T15">
-        <v>1.074605843868405E-06</v>
+        <v>1.192808638013716E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H16">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J16">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.17443800000001</v>
+        <v>22.92703233333333</v>
       </c>
       <c r="N16">
-        <v>159.523314</v>
+        <v>68.781097</v>
       </c>
       <c r="O16">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339736</v>
       </c>
       <c r="P16">
-        <v>0.08181736346105227</v>
+        <v>0.03740302198339737</v>
       </c>
       <c r="Q16">
-        <v>143.30830087628</v>
+        <v>65.06513709582211</v>
       </c>
       <c r="R16">
-        <v>1289.77470788652</v>
+        <v>585.586233862399</v>
       </c>
       <c r="S16">
-        <v>4.536157027335926E-05</v>
+        <v>2.17097385082689E-05</v>
       </c>
       <c r="T16">
-        <v>4.536157027335926E-05</v>
+        <v>2.17097385082689E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.69506</v>
+        <v>2.837922333333333</v>
       </c>
       <c r="H17">
-        <v>8.085180000000001</v>
+        <v>8.513767</v>
       </c>
       <c r="I17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477663</v>
       </c>
       <c r="J17">
-        <v>0.000554424737665286</v>
+        <v>0.0005804273921477662</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>75.63123766666666</v>
+        <v>79.39367866666667</v>
       </c>
       <c r="N17">
-        <v>226.893713</v>
+        <v>238.181036</v>
       </c>
       <c r="O17">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="P17">
-        <v>0.1163707355248944</v>
+        <v>0.1295223675414243</v>
       </c>
       <c r="Q17">
-        <v>203.8307233859267</v>
+        <v>225.3130938136236</v>
       </c>
       <c r="R17">
-        <v>1834.47651047334</v>
+        <v>2027.817844322612</v>
       </c>
       <c r="S17">
-        <v>6.451881451530593E-05</v>
+        <v>7.517833001687341E-05</v>
       </c>
       <c r="T17">
-        <v>6.451881451530593E-05</v>
+        <v>7.51783300168734E-05</v>
       </c>
     </row>
   </sheetData>
